--- a/10b/hasznosfuggv.xlsx
+++ b/10b/hasznosfuggv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\bullshitBundle\kossuth\10b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\10b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BC3F49-B845-42D3-AB72-44CA7F1B207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402A892-AD9D-4F6E-8CB9-9B6483F64F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF2068A4-47D4-4F7C-8503-9BE175CE6542}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{DF2068A4-47D4-4F7C-8503-9BE175CE6542}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Hasznos függvények</t>
   </si>
@@ -111,6 +111,36 @@
   </si>
   <si>
     <t>olyan is van, hogy átlagha, ugyanúgy működik mint a szumha</t>
+  </si>
+  <si>
+    <t>DARAB</t>
+  </si>
+  <si>
+    <t>megszámolja a számot tartalmazó cellákat</t>
+  </si>
+  <si>
+    <t>kutya</t>
+  </si>
+  <si>
+    <t>darab2: nem üres cellák, darabteli: feltételes megszámolás, darabhatöbb: több feltételes</t>
+  </si>
+  <si>
+    <t>KICSI</t>
+  </si>
+  <si>
+    <t>a második legkisebb szám</t>
+  </si>
+  <si>
+    <t>NAGY</t>
+  </si>
+  <si>
+    <t>visszaadja az n-edik legnagyobb értékű cella értékét egy tömbben</t>
+  </si>
+  <si>
+    <t>visszaadja az n-edik legkisebb értékű cella értékét egy tömbben</t>
+  </si>
+  <si>
+    <t>a második legnagyobb szám</t>
   </si>
 </sst>
 </file>
@@ -184,15 +214,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,15 +225,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -226,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,241 +551,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38BCAD4-B490-4543-9D80-83361EA3528A}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="33.4" x14ac:dyDescent="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <f>SUM(C3:G3)</f>
         <v>45</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>33</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f>SUMIF(C4:G4, "&lt;20", C4:G4)</f>
         <v>34</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" t="str">
         <f>IF(EVEN(G5), "Páros", "Páratlan")</f>
         <v>Páros</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <f>INDEX(C6:G6, 2)</f>
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <f>MATCH(D7,C7:G7, 0)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <f>LEN(G8)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f>AVERAGE(C9:G9)</f>
         <v>13.6</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>COUNT(C10:G10)</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>-6</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <f>SMALL(C11:G11, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <f>LARGE(C12:G12, 2)</f>
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/10b/hasznosfuggv.xlsx
+++ b/10b/hasznosfuggv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\10b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402A892-AD9D-4F6E-8CB9-9B6483F64F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B03C1-66E6-4BD2-8C14-4B36429F0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{DF2068A4-47D4-4F7C-8503-9BE175CE6542}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Hasznos függvények</t>
   </si>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t>a második legnagyobb szám</t>
+  </si>
+  <si>
+    <t>megadja, hogy egy dátum milyen napra esik</t>
+  </si>
+  <si>
+    <t>HÉT.NAPJA</t>
+  </si>
+  <si>
+    <t>ÉS</t>
+  </si>
+  <si>
+    <t>VAGY</t>
+  </si>
+  <si>
+    <t>több logikai feltétel is megadható és visszaad egyet (csak akkor ad vissza igazat, ha mindkettő feltétel igaz)</t>
+  </si>
+  <si>
+    <t>ugyanaz mint az és, de legalább egy igaz feltétel esetén már igazat ad vissza</t>
+  </si>
+  <si>
+    <t>MINHA</t>
+  </si>
+  <si>
+    <t>MAXHA</t>
+  </si>
+  <si>
+    <t>visszaadja a legkisebb számot egy tömbből, ha az megfelel egy feltételnek</t>
+  </si>
+  <si>
+    <t>visszaadja a legnagyobb számot egy tömbből, ha az megfelel egy feltételnek</t>
+  </si>
+  <si>
+    <t>KEREKÍTÉS</t>
+  </si>
+  <si>
+    <t>egy számot egy általad megadott módon kerekít (tizes, százas, ezres)</t>
   </si>
 </sst>
 </file>
@@ -214,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,9 +273,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,9 +292,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +332,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,17 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38BCAD4-B490-4543-9D80-83361EA3528A}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -867,6 +905,114 @@
       </c>
       <c r="I12" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45609</v>
+      </c>
+      <c r="H13">
+        <f>WEEKDAY(G13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="b">
+        <f>AND(5&gt;3, 6&gt;4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="b">
+        <f>OR(5&lt;3, 6&gt;4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.MINIFS(C16:G16,C16:G16,"&gt;2")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.MAXIFS(C17:G17,C17:G17,"&lt;4")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>24567</v>
+      </c>
+      <c r="H18">
+        <f>ROUND(G18,-3)</f>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
